--- a/biology/Biologie cellulaire et moléculaire/Isolement_gamétique/Isolement_gamétique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Isolement_gamétique/Isolement_gamétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Isolement_gam%C3%A9tique</t>
+          <t>Isolement_gamétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'isolement gamétique est un des mécanismes de protection de la reproduction après l’accouplement de la spéciation pré zygotique[1]. Après la copulation, les gamètes ne se rencontrent pas ou ne survivent pas[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'isolement gamétique est un des mécanismes de protection de la reproduction après l’accouplement de la spéciation pré zygotique. Après la copulation, les gamètes ne se rencontrent pas ou ne survivent pas.
 </t>
         </is>
       </c>
